--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6090"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Selectie papers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -333,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,23 +356,35 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -380,17 +392,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,18 +742,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E55"/>
+  <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="124.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,51 +767,51 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2016</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>112</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2015</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -793,37 +832,37 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>2009</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>629</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>2014</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>324</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -878,23 +917,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>2013</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>186</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
@@ -929,6 +969,7 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
@@ -1014,20 +1055,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>2016</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1082,20 +1123,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>2001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>1047</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1167,54 +1208,54 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>2015</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>122</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>2017</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>97</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>2014</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>133</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1235,55 +1276,40 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>2007</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>261</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="3">
         <v>2014</v>
       </c>
-      <c r="D38">
+      <c r="D39" s="3">
         <v>219</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39">
-        <v>2014</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,16 +1317,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40">
-        <v>2015</v>
-      </c>
-      <c r="D40">
-        <v>61</v>
+        <v>2014</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,32 +1334,32 @@
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <v>2015</v>
       </c>
       <c r="D41">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D42" s="3">
         <v>16</v>
       </c>
-      <c r="E41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42">
-        <v>2014</v>
-      </c>
-      <c r="D42">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1342,33 +1368,33 @@
         <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>2014</v>
       </c>
       <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D44" s="3">
         <v>27</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44">
-        <v>2016</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,16 +1402,16 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,16 +1419,16 @@
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46">
-        <v>2018</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
+        <v>2015</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,16 +1436,16 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1427,33 +1453,33 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <v>2017</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D49" s="3">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49">
-        <v>2017</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,16 +1487,16 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,16 +1504,16 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,16 +1521,16 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52">
         <v>2017</v>
       </c>
-      <c r="D52">
-        <v>5</v>
+      <c r="D52" t="s">
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,33 +1538,33 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53">
+        <v>2017</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C53">
+      <c r="C54" s="3">
         <v>2016</v>
       </c>
-      <c r="D53">
+      <c r="D54" s="3">
         <v>3</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" s="3" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54">
-        <v>2017</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,15 +1572,32 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55">
+        <v>2017</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C55">
+      <c r="C56" s="3">
         <v>2013</v>
       </c>
-      <c r="D55">
+      <c r="D56" s="3">
         <v>131</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
     </row>

--- a/Papers.xlsx
+++ b/Papers.xlsx
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
